--- a/doc/Sprint Backlog.xlsx
+++ b/doc/Sprint Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Backlog Item</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Create Doc Delete UI</t>
   </si>
   <si>
-    <t>Rest when UI is designed</t>
-  </si>
-  <si>
     <t>Create Client/Server</t>
   </si>
   <si>
@@ -76,6 +73,39 @@
   </si>
   <si>
     <t>Edit doc</t>
+  </si>
+  <si>
+    <t>Mikkel</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Sync doc</t>
+  </si>
+  <si>
+    <t>Create UI + diff. view</t>
+  </si>
+  <si>
+    <t>Research and develop three-way merge algorithm</t>
+  </si>
+  <si>
+    <t>Rest (i.e Revision History) when UI is designed</t>
+  </si>
+  <si>
+    <t>Mark &amp; Mikkel</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Connection between client and server</t>
+  </si>
+  <si>
+    <t>Andreas</t>
+  </si>
+  <si>
+    <t>Christian</t>
   </si>
 </sst>
 </file>
@@ -119,9 +149,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,18 +461,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -444,11 +482,11 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -456,96 +494,237 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="4">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
+      <c r="C5" s="4">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="C7" s="4">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>16</v>
+      <c r="C15" s="4">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="C21" s="4">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>18</v>
+      <c r="C22" s="4">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="4">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="4">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="4">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Sprint Backlog.xlsx
+++ b/doc/Sprint Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="14355" windowHeight="6465"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>Backlog Item</t>
   </si>
@@ -106,13 +106,28 @@
   </si>
   <si>
     <t>Christian</t>
+  </si>
+  <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>Day 4</t>
+  </si>
+  <si>
+    <t>Day 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,7 +264,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -284,7 +298,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -460,14 +473,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.7109375" bestFit="1" customWidth="1"/>
@@ -475,7 +488,7 @@
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,8 +501,26 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -502,8 +533,14 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -513,8 +550,14 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -524,8 +567,14 @@
       <c r="D5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -535,8 +584,14 @@
       <c r="D6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -546,8 +601,14 @@
       <c r="D7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -560,8 +621,14 @@
       <c r="D9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -571,8 +638,14 @@
       <c r="D10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -582,8 +655,14 @@
       <c r="D11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -593,8 +672,14 @@
       <c r="D12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
@@ -604,11 +689,17 @@
       <c r="D13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="3" customFormat="1">
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -621,8 +712,14 @@
       <c r="D15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -632,8 +729,14 @@
       <c r="D16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -643,8 +746,14 @@
       <c r="D17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -657,8 +766,14 @@
       <c r="D19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="B20" t="s">
         <v>15</v>
       </c>
@@ -668,8 +783,14 @@
       <c r="D20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -679,8 +800,14 @@
       <c r="D21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="B22" t="s">
         <v>17</v>
       </c>
@@ -690,8 +817,14 @@
       <c r="D22" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -704,8 +837,14 @@
       <c r="D24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -715,8 +854,14 @@
       <c r="D25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -725,6 +870,12 @@
       </c>
       <c r="D26" t="s">
         <v>26</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -734,24 +885,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/Sprint Backlog.xlsx
+++ b/doc/Sprint Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t>Backlog Item</t>
   </si>
@@ -121,6 +121,30 @@
   </si>
   <si>
     <t>Day 5</t>
+  </si>
+  <si>
+    <t>Create DB</t>
+  </si>
+  <si>
+    <t>Domain model</t>
+  </si>
+  <si>
+    <t>ER model</t>
+  </si>
+  <si>
+    <t>Create .mdx</t>
+  </si>
+  <si>
+    <t>DAO + LINQ queries</t>
+  </si>
+  <si>
+    <t>Create Entity Framework</t>
+  </si>
+  <si>
+    <t>Mark+Andreas</t>
+  </si>
+  <si>
+    <t>Andreas+Mark</t>
   </si>
 </sst>
 </file>
@@ -474,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -539,6 +563,9 @@
       <c r="F3">
         <v>14</v>
       </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="B4" t="s">
@@ -556,6 +583,9 @@
       <c r="F4">
         <v>2</v>
       </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="B5" t="s">
@@ -573,6 +603,9 @@
       <c r="F5">
         <v>10</v>
       </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="B6" t="s">
@@ -590,6 +623,9 @@
       <c r="F6">
         <v>3</v>
       </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" t="s">
@@ -607,6 +643,9 @@
       <c r="F7">
         <v>20</v>
       </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
@@ -627,6 +666,9 @@
       <c r="F9">
         <v>5</v>
       </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" t="s">
@@ -644,6 +686,9 @@
       <c r="F10">
         <v>1</v>
       </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" t="s">
@@ -661,6 +706,9 @@
       <c r="F11">
         <v>1</v>
       </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" t="s">
@@ -678,6 +726,9 @@
       <c r="F12">
         <v>0</v>
       </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="5" t="s">
@@ -695,6 +746,9 @@
       <c r="F13">
         <v>3</v>
       </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1">
       <c r="C14" s="4"/>
@@ -718,6 +772,9 @@
       <c r="F15">
         <v>3</v>
       </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" t="s">
@@ -735,8 +792,11 @@
       <c r="F16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -752,8 +812,11 @@
       <c r="F17">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -772,8 +835,11 @@
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="B20" t="s">
         <v>15</v>
       </c>
@@ -789,8 +855,11 @@
       <c r="F20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -806,8 +875,11 @@
       <c r="F21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="B22" t="s">
         <v>17</v>
       </c>
@@ -823,8 +895,11 @@
       <c r="F22">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -843,8 +918,11 @@
       <c r="F24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -860,8 +938,11 @@
       <c r="F25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -875,7 +956,113 @@
         <v>20</v>
       </c>
       <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
         <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="5" customFormat="1">
+      <c r="A28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="5" customFormat="1">
+      <c r="B29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="4">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="5" customFormat="1">
+      <c r="B30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="4">
+        <v>5</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="5" customFormat="1">
+      <c r="B31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="4">
+        <v>7</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="5">
+        <v>7</v>
+      </c>
+      <c r="F31" s="5">
+        <v>7</v>
+      </c>
+      <c r="G31" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="4">
+        <v>7</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Sprint Backlog.xlsx
+++ b/doc/Sprint Backlog.xlsx
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -566,6 +566,12 @@
       <c r="G3">
         <v>12</v>
       </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="B4" t="s">
@@ -586,6 +592,12 @@
       <c r="G4">
         <v>2</v>
       </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="B5" t="s">
@@ -594,8 +606,8 @@
       <c r="C5" s="4">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>28</v>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -605,6 +617,12 @@
       </c>
       <c r="G5">
         <v>9</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -614,8 +632,8 @@
       <c r="C6" s="4">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -625,6 +643,12 @@
       </c>
       <c r="G6">
         <v>2</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -646,6 +670,12 @@
       <c r="G7">
         <v>20</v>
       </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
@@ -669,6 +699,12 @@
       <c r="G9">
         <v>5</v>
       </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" t="s">
@@ -689,6 +725,12 @@
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" t="s">
@@ -709,6 +751,12 @@
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" t="s">
@@ -729,6 +777,12 @@
       <c r="G12">
         <v>0</v>
       </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="5" t="s">
@@ -749,6 +803,12 @@
       <c r="G13">
         <v>3</v>
       </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1">
       <c r="C14" s="4"/>
@@ -775,6 +835,12 @@
       <c r="G15">
         <v>3</v>
       </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" t="s">
@@ -795,8 +861,14 @@
       <c r="G16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -815,8 +887,14 @@
       <c r="G17">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -838,8 +916,14 @@
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
         <v>15</v>
       </c>
@@ -858,8 +942,14 @@
       <c r="G20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -878,8 +968,14 @@
       <c r="G21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
         <v>17</v>
       </c>
@@ -898,8 +994,14 @@
       <c r="G22">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -921,8 +1023,14 @@
       <c r="G24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -941,8 +1049,14 @@
       <c r="G25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -961,8 +1075,14 @@
       <c r="G26">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" s="5" customFormat="1">
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="5" customFormat="1">
       <c r="A28" s="5" t="s">
         <v>35</v>
       </c>
@@ -984,8 +1104,14 @@
       <c r="G28" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" s="5" customFormat="1">
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="5" customFormat="1">
       <c r="B29" s="5" t="s">
         <v>37</v>
       </c>
@@ -1004,8 +1130,14 @@
       <c r="G29" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" s="5" customFormat="1">
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="5" customFormat="1">
       <c r="B30" s="5" t="s">
         <v>38</v>
       </c>
@@ -1024,8 +1156,14 @@
       <c r="G30" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" s="5" customFormat="1">
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="5" customFormat="1">
       <c r="B31" s="5" t="s">
         <v>39</v>
       </c>
@@ -1044,8 +1182,14 @@
       <c r="G31" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="5">
+        <v>5</v>
+      </c>
+      <c r="I31" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" s="5" t="s">
         <v>40</v>
       </c>
@@ -1063,6 +1207,12 @@
       </c>
       <c r="G32">
         <v>2</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
